--- a/.venv/tabela_de_entrada.xlsx
+++ b/.venv/tabela_de_entrada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -32,42 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">recebedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/01/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comissão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/02/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/06/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/06/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/06/2025</t>
   </si>
 </sst>
 </file>
@@ -157,13 +121,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -361,7 +329,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,102 +349,46 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>6528</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>7240.28</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2000.5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/.venv/tabela_de_entrada.xlsx
+++ b/.venv/tabela_de_entrada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -32,14 +32,21 @@
   </si>
   <si>
     <t xml:space="preserve">recebedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetimob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canal Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -121,13 +128,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -329,7 +344,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,46 +364,62 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/.venv/tabela_de_entrada.xlsx
+++ b/.venv/tabela_de_entrada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">recebedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jetimob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canal Pro</t>
   </si>
 </sst>
 </file>
@@ -142,7 +136,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -344,7 +338,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="3:3 2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,32 +358,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>

--- a/.venv/tabela_de_entrada.xlsx
+++ b/.venv/tabela_de_entrada.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t xml:space="preserve">recebedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comissão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karina</t>
   </si>
 </sst>
 </file>
@@ -132,11 +141,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -338,7 +347,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="3:3 2:2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,11 +366,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
